--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841850_UK_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841850_UK_all.xlsx
@@ -19,10 +19,10 @@
     <t>TUR_GBR_841850</t>
   </si>
   <si>
-    <t>AUT_GBR_841850</t>
+    <t>CHN_GBR_841850</t>
   </si>
   <si>
-    <t>CHN_GBR_841850</t>
+    <t>AUT_GBR_841850</t>
   </si>
   <si>
     <t>CHZ_GBR_841850</t>
@@ -570,10 +570,10 @@
         <v>701</v>
       </c>
       <c r="B2">
+        <v>412</v>
+      </c>
+      <c r="C2">
         <v>203</v>
-      </c>
-      <c r="C2">
-        <v>412</v>
       </c>
       <c r="D2">
         <v>429</v>
@@ -590,10 +590,10 @@
         <v>383</v>
       </c>
       <c r="B3">
+        <v>549</v>
+      </c>
+      <c r="C3">
         <v>109</v>
-      </c>
-      <c r="C3">
-        <v>549</v>
       </c>
       <c r="D3">
         <v>332</v>
@@ -625,10 +625,10 @@
         <v>414</v>
       </c>
       <c r="B4">
+        <v>742</v>
+      </c>
+      <c r="C4">
         <v>122</v>
-      </c>
-      <c r="C4">
-        <v>742</v>
       </c>
       <c r="D4">
         <v>645</v>
@@ -675,10 +675,10 @@
         <v>155</v>
       </c>
       <c r="B5">
+        <v>877</v>
+      </c>
+      <c r="C5">
         <v>487</v>
-      </c>
-      <c r="C5">
-        <v>877</v>
       </c>
       <c r="D5">
         <v>321</v>
@@ -740,10 +740,10 @@
         <v>492</v>
       </c>
       <c r="B6">
+        <v>985</v>
+      </c>
+      <c r="C6">
         <v>794</v>
-      </c>
-      <c r="C6">
-        <v>985</v>
       </c>
       <c r="D6">
         <v>614</v>
@@ -805,10 +805,10 @@
         <v>699</v>
       </c>
       <c r="B7">
+        <v>1325</v>
+      </c>
+      <c r="C7">
         <v>987</v>
-      </c>
-      <c r="C7">
-        <v>1325</v>
       </c>
       <c r="D7">
         <v>1273</v>
@@ -870,10 +870,10 @@
         <v>446</v>
       </c>
       <c r="B8">
+        <v>1091</v>
+      </c>
+      <c r="C8">
         <v>642</v>
-      </c>
-      <c r="C8">
-        <v>1091</v>
       </c>
       <c r="D8">
         <v>1997</v>
@@ -950,10 +950,10 @@
         <v>721</v>
       </c>
       <c r="B9">
+        <v>992</v>
+      </c>
+      <c r="C9">
         <v>1296</v>
-      </c>
-      <c r="C9">
-        <v>992</v>
       </c>
       <c r="D9">
         <v>1585</v>
@@ -1030,10 +1030,10 @@
         <v>906</v>
       </c>
       <c r="B10">
+        <v>992</v>
+      </c>
+      <c r="C10">
         <v>1123</v>
-      </c>
-      <c r="C10">
-        <v>992</v>
       </c>
       <c r="D10">
         <v>1713</v>
@@ -1110,10 +1110,10 @@
         <v>949</v>
       </c>
       <c r="B11">
+        <v>1505</v>
+      </c>
+      <c r="C11">
         <v>1173</v>
-      </c>
-      <c r="C11">
-        <v>1505</v>
       </c>
       <c r="D11">
         <v>1614</v>
@@ -1190,10 +1190,10 @@
         <v>853</v>
       </c>
       <c r="B12">
+        <v>1148</v>
+      </c>
+      <c r="C12">
         <v>441</v>
-      </c>
-      <c r="C12">
-        <v>1148</v>
       </c>
       <c r="D12">
         <v>1267</v>
@@ -1270,10 +1270,10 @@
         <v>1280</v>
       </c>
       <c r="B13">
+        <v>1200</v>
+      </c>
+      <c r="C13">
         <v>365</v>
-      </c>
-      <c r="C13">
-        <v>1200</v>
       </c>
       <c r="D13">
         <v>988</v>
@@ -1350,10 +1350,10 @@
         <v>384</v>
       </c>
       <c r="B14">
+        <v>791</v>
+      </c>
+      <c r="C14">
         <v>701</v>
-      </c>
-      <c r="C14">
-        <v>791</v>
       </c>
       <c r="D14">
         <v>522</v>
@@ -1445,10 +1445,10 @@
         <v>762</v>
       </c>
       <c r="B15">
+        <v>1426</v>
+      </c>
+      <c r="C15">
         <v>505</v>
-      </c>
-      <c r="C15">
-        <v>1426</v>
       </c>
       <c r="D15">
         <v>1227</v>
@@ -1540,10 +1540,10 @@
         <v>892</v>
       </c>
       <c r="B16">
+        <v>1019</v>
+      </c>
+      <c r="C16">
         <v>162</v>
-      </c>
-      <c r="C16">
-        <v>1019</v>
       </c>
       <c r="D16">
         <v>466</v>
@@ -1635,10 +1635,10 @@
         <v>826</v>
       </c>
       <c r="B17">
+        <v>1562</v>
+      </c>
+      <c r="C17">
         <v>539</v>
-      </c>
-      <c r="C17">
-        <v>1562</v>
       </c>
       <c r="D17">
         <v>1382</v>
@@ -1730,10 +1730,10 @@
         <v>1920</v>
       </c>
       <c r="B18">
+        <v>764</v>
+      </c>
+      <c r="C18">
         <v>855</v>
-      </c>
-      <c r="C18">
-        <v>764</v>
       </c>
       <c r="D18">
         <v>965</v>
@@ -1825,10 +1825,10 @@
         <v>3496</v>
       </c>
       <c r="B19">
+        <v>1571</v>
+      </c>
+      <c r="C19">
         <v>1526</v>
-      </c>
-      <c r="C19">
-        <v>1571</v>
       </c>
       <c r="D19">
         <v>566</v>
@@ -1920,10 +1920,10 @@
         <v>1712</v>
       </c>
       <c r="B20">
+        <v>1738</v>
+      </c>
+      <c r="C20">
         <v>1646</v>
-      </c>
-      <c r="C20">
-        <v>1738</v>
       </c>
       <c r="D20">
         <v>418</v>
@@ -2015,10 +2015,10 @@
         <v>2820</v>
       </c>
       <c r="B21">
+        <v>1857</v>
+      </c>
+      <c r="C21">
         <v>1046</v>
-      </c>
-      <c r="C21">
-        <v>1857</v>
       </c>
       <c r="D21">
         <v>1200</v>
@@ -2110,10 +2110,10 @@
         <v>3252</v>
       </c>
       <c r="B22">
+        <v>1191</v>
+      </c>
+      <c r="C22">
         <v>1090</v>
-      </c>
-      <c r="C22">
-        <v>1191</v>
       </c>
       <c r="D22">
         <v>463</v>
@@ -2205,10 +2205,10 @@
         <v>3235</v>
       </c>
       <c r="B23">
+        <v>2493</v>
+      </c>
+      <c r="C23">
         <v>2558</v>
-      </c>
-      <c r="C23">
-        <v>2493</v>
       </c>
       <c r="D23">
         <v>1009</v>
@@ -2300,10 +2300,10 @@
         <v>2254</v>
       </c>
       <c r="B24">
+        <v>2796</v>
+      </c>
+      <c r="C24">
         <v>1259</v>
-      </c>
-      <c r="C24">
-        <v>2796</v>
       </c>
       <c r="D24">
         <v>1648</v>
@@ -2395,10 +2395,10 @@
         <v>2102</v>
       </c>
       <c r="B25">
+        <v>2155</v>
+      </c>
+      <c r="C25">
         <v>1850</v>
-      </c>
-      <c r="C25">
-        <v>2155</v>
       </c>
       <c r="D25">
         <v>1272</v>
@@ -2490,10 +2490,10 @@
         <v>1700</v>
       </c>
       <c r="B26">
+        <v>3878</v>
+      </c>
+      <c r="C26">
         <v>2452</v>
-      </c>
-      <c r="C26">
-        <v>3878</v>
       </c>
       <c r="D26">
         <v>4103</v>
@@ -2585,10 +2585,10 @@
         <v>1686</v>
       </c>
       <c r="B27">
+        <v>3730</v>
+      </c>
+      <c r="C27">
         <v>1835</v>
-      </c>
-      <c r="C27">
-        <v>3730</v>
       </c>
       <c r="D27">
         <v>593</v>
@@ -2680,10 +2680,10 @@
         <v>617</v>
       </c>
       <c r="B28">
+        <v>1362</v>
+      </c>
+      <c r="C28">
         <v>1014</v>
-      </c>
-      <c r="C28">
-        <v>1362</v>
       </c>
       <c r="D28">
         <v>2118</v>
@@ -2775,10 +2775,10 @@
         <v>2924</v>
       </c>
       <c r="B29">
+        <v>1363</v>
+      </c>
+      <c r="C29">
         <v>1687</v>
-      </c>
-      <c r="C29">
-        <v>1363</v>
       </c>
       <c r="D29">
         <v>1141</v>
@@ -2870,10 +2870,10 @@
         <v>2917</v>
       </c>
       <c r="B30">
+        <v>1127</v>
+      </c>
+      <c r="C30">
         <v>2096</v>
-      </c>
-      <c r="C30">
-        <v>1127</v>
       </c>
       <c r="D30">
         <v>5580</v>
@@ -2965,10 +2965,10 @@
         <v>1899</v>
       </c>
       <c r="B31">
+        <v>1510</v>
+      </c>
+      <c r="C31">
         <v>2107</v>
-      </c>
-      <c r="C31">
-        <v>1510</v>
       </c>
       <c r="D31">
         <v>2368</v>
@@ -3060,10 +3060,10 @@
         <v>2949</v>
       </c>
       <c r="B32">
+        <v>1634</v>
+      </c>
+      <c r="C32">
         <v>2115</v>
-      </c>
-      <c r="C32">
-        <v>1634</v>
       </c>
       <c r="D32">
         <v>1908</v>
@@ -3155,10 +3155,10 @@
         <v>1928</v>
       </c>
       <c r="B33">
+        <v>1622</v>
+      </c>
+      <c r="C33">
         <v>1538</v>
-      </c>
-      <c r="C33">
-        <v>1622</v>
       </c>
       <c r="D33">
         <v>1005</v>
@@ -3250,10 +3250,10 @@
         <v>2180</v>
       </c>
       <c r="B34">
+        <v>1254</v>
+      </c>
+      <c r="C34">
         <v>2202</v>
-      </c>
-      <c r="C34">
-        <v>1254</v>
       </c>
       <c r="D34">
         <v>1913</v>
@@ -3345,10 +3345,10 @@
         <v>2225</v>
       </c>
       <c r="B35">
+        <v>1573</v>
+      </c>
+      <c r="C35">
         <v>2527</v>
-      </c>
-      <c r="C35">
-        <v>1573</v>
       </c>
       <c r="D35">
         <v>1932</v>
@@ -3440,10 +3440,10 @@
         <v>2644</v>
       </c>
       <c r="B36">
+        <v>1468</v>
+      </c>
+      <c r="C36">
         <v>803</v>
-      </c>
-      <c r="C36">
-        <v>1468</v>
       </c>
       <c r="D36">
         <v>1812</v>
@@ -3535,10 +3535,10 @@
         <v>2076</v>
       </c>
       <c r="B37">
+        <v>1533</v>
+      </c>
+      <c r="C37">
         <v>2268</v>
-      </c>
-      <c r="C37">
-        <v>1533</v>
       </c>
       <c r="D37">
         <v>2444</v>
@@ -3630,10 +3630,10 @@
         <v>1005</v>
       </c>
       <c r="B38">
+        <v>993</v>
+      </c>
+      <c r="C38">
         <v>2328</v>
-      </c>
-      <c r="C38">
-        <v>993</v>
       </c>
       <c r="D38">
         <v>764</v>
@@ -3725,10 +3725,10 @@
         <v>737</v>
       </c>
       <c r="B39">
+        <v>1051</v>
+      </c>
+      <c r="C39">
         <v>1742</v>
-      </c>
-      <c r="C39">
-        <v>1051</v>
       </c>
       <c r="D39">
         <v>797</v>
@@ -3820,10 +3820,10 @@
         <v>653</v>
       </c>
       <c r="B40">
+        <v>404</v>
+      </c>
+      <c r="C40">
         <v>692</v>
-      </c>
-      <c r="C40">
-        <v>404</v>
       </c>
       <c r="D40">
         <v>772</v>
@@ -3915,10 +3915,10 @@
         <v>654</v>
       </c>
       <c r="B41">
+        <v>751</v>
+      </c>
+      <c r="C41">
         <v>1364</v>
-      </c>
-      <c r="C41">
-        <v>751</v>
       </c>
       <c r="D41">
         <v>1124</v>
@@ -4010,10 +4010,10 @@
         <v>884</v>
       </c>
       <c r="B42">
+        <v>456</v>
+      </c>
+      <c r="C42">
         <v>2246</v>
-      </c>
-      <c r="C42">
-        <v>456</v>
       </c>
       <c r="D42">
         <v>331</v>
@@ -4105,10 +4105,10 @@
         <v>852</v>
       </c>
       <c r="B43">
+        <v>609</v>
+      </c>
+      <c r="C43">
         <v>1103</v>
-      </c>
-      <c r="C43">
-        <v>609</v>
       </c>
       <c r="D43">
         <v>431</v>
@@ -4200,10 +4200,10 @@
         <v>1563</v>
       </c>
       <c r="B44">
+        <v>557</v>
+      </c>
+      <c r="C44">
         <v>1351</v>
-      </c>
-      <c r="C44">
-        <v>557</v>
       </c>
       <c r="D44">
         <v>1370</v>
@@ -4295,10 +4295,10 @@
         <v>1073</v>
       </c>
       <c r="B45">
+        <v>1145</v>
+      </c>
+      <c r="C45">
         <v>1421</v>
-      </c>
-      <c r="C45">
-        <v>1145</v>
       </c>
       <c r="D45">
         <v>981</v>
@@ -4390,10 +4390,10 @@
         <v>2084</v>
       </c>
       <c r="B46">
+        <v>1082</v>
+      </c>
+      <c r="C46">
         <v>1379</v>
-      </c>
-      <c r="C46">
-        <v>1082</v>
       </c>
       <c r="D46">
         <v>1356</v>
@@ -4485,10 +4485,10 @@
         <v>2302</v>
       </c>
       <c r="B47">
+        <v>1392</v>
+      </c>
+      <c r="C47">
         <v>2632</v>
-      </c>
-      <c r="C47">
-        <v>1392</v>
       </c>
       <c r="D47">
         <v>2442</v>
@@ -4580,10 +4580,10 @@
         <v>2280</v>
       </c>
       <c r="B48">
+        <v>1632</v>
+      </c>
+      <c r="C48">
         <v>1082</v>
-      </c>
-      <c r="C48">
-        <v>1632</v>
       </c>
       <c r="D48">
         <v>2216</v>
@@ -4675,10 +4675,10 @@
         <v>938</v>
       </c>
       <c r="B49">
+        <v>1287</v>
+      </c>
+      <c r="C49">
         <v>1647</v>
-      </c>
-      <c r="C49">
-        <v>1287</v>
       </c>
       <c r="D49">
         <v>3914</v>
@@ -4770,10 +4770,10 @@
         <v>1506</v>
       </c>
       <c r="B50">
+        <v>1296</v>
+      </c>
+      <c r="C50">
         <v>2473</v>
-      </c>
-      <c r="C50">
-        <v>1296</v>
       </c>
       <c r="D50">
         <v>4090</v>
@@ -4865,10 +4865,10 @@
         <v>1370</v>
       </c>
       <c r="B51">
+        <v>827</v>
+      </c>
+      <c r="C51">
         <v>1719</v>
-      </c>
-      <c r="C51">
-        <v>827</v>
       </c>
       <c r="D51">
         <v>1440</v>
@@ -4960,10 +4960,10 @@
         <v>1308</v>
       </c>
       <c r="B52">
+        <v>1335</v>
+      </c>
+      <c r="C52">
         <v>1052</v>
-      </c>
-      <c r="C52">
-        <v>1335</v>
       </c>
       <c r="D52">
         <v>1011</v>
@@ -5055,10 +5055,10 @@
         <v>650</v>
       </c>
       <c r="B53">
+        <v>1508</v>
+      </c>
+      <c r="C53">
         <v>1706</v>
-      </c>
-      <c r="C53">
-        <v>1508</v>
       </c>
       <c r="D53">
         <v>2282</v>
@@ -5150,10 +5150,10 @@
         <v>732</v>
       </c>
       <c r="B54">
+        <v>1477</v>
+      </c>
+      <c r="C54">
         <v>1457</v>
-      </c>
-      <c r="C54">
-        <v>1477</v>
       </c>
       <c r="D54">
         <v>2672</v>
@@ -5245,10 +5245,10 @@
         <v>1123</v>
       </c>
       <c r="B55">
+        <v>1862</v>
+      </c>
+      <c r="C55">
         <v>1554</v>
-      </c>
-      <c r="C55">
-        <v>1862</v>
       </c>
       <c r="D55">
         <v>2823</v>
@@ -5340,10 +5340,10 @@
         <v>1264</v>
       </c>
       <c r="B56">
+        <v>1952</v>
+      </c>
+      <c r="C56">
         <v>1539</v>
-      </c>
-      <c r="C56">
-        <v>1952</v>
       </c>
       <c r="D56">
         <v>2160</v>
@@ -5435,10 +5435,10 @@
         <v>1389</v>
       </c>
       <c r="B57">
+        <v>2093</v>
+      </c>
+      <c r="C57">
         <v>1293</v>
-      </c>
-      <c r="C57">
-        <v>2093</v>
       </c>
       <c r="D57">
         <v>2863</v>
@@ -5530,10 +5530,10 @@
         <v>2017</v>
       </c>
       <c r="B58">
+        <v>2139</v>
+      </c>
+      <c r="C58">
         <v>1003</v>
-      </c>
-      <c r="C58">
-        <v>2139</v>
       </c>
       <c r="D58">
         <v>3435</v>
@@ -5625,10 +5625,10 @@
         <v>2352</v>
       </c>
       <c r="B59">
+        <v>2133</v>
+      </c>
+      <c r="C59">
         <v>1930</v>
-      </c>
-      <c r="C59">
-        <v>2133</v>
       </c>
       <c r="D59">
         <v>3424</v>
@@ -5720,10 +5720,10 @@
         <v>3098</v>
       </c>
       <c r="B60">
+        <v>2130</v>
+      </c>
+      <c r="C60">
         <v>1170</v>
-      </c>
-      <c r="C60">
-        <v>2130</v>
       </c>
       <c r="D60">
         <v>5289</v>
@@ -5815,10 +5815,10 @@
         <v>3283</v>
       </c>
       <c r="B61">
+        <v>1978</v>
+      </c>
+      <c r="C61">
         <v>1621</v>
-      </c>
-      <c r="C61">
-        <v>1978</v>
       </c>
       <c r="D61">
         <v>6617</v>
@@ -5910,10 +5910,10 @@
         <v>5750</v>
       </c>
       <c r="B62">
+        <v>1618</v>
+      </c>
+      <c r="C62">
         <v>803</v>
-      </c>
-      <c r="C62">
-        <v>1618</v>
       </c>
       <c r="D62">
         <v>7534</v>
@@ -6005,10 +6005,10 @@
         <v>3998</v>
       </c>
       <c r="B63">
+        <v>1125</v>
+      </c>
+      <c r="C63">
         <v>2116</v>
-      </c>
-      <c r="C63">
-        <v>1125</v>
       </c>
       <c r="D63">
         <v>2880</v>
@@ -6100,10 +6100,10 @@
         <v>3280</v>
       </c>
       <c r="B64">
+        <v>1578</v>
+      </c>
+      <c r="C64">
         <v>334</v>
-      </c>
-      <c r="C64">
-        <v>1578</v>
       </c>
       <c r="D64">
         <v>1303</v>
@@ -6195,10 +6195,10 @@
         <v>1623</v>
       </c>
       <c r="B65">
+        <v>1337</v>
+      </c>
+      <c r="C65">
         <v>1430</v>
-      </c>
-      <c r="C65">
-        <v>1337</v>
       </c>
       <c r="D65">
         <v>1476</v>
@@ -6290,10 +6290,10 @@
         <v>1063</v>
       </c>
       <c r="B66">
+        <v>716</v>
+      </c>
+      <c r="C66">
         <v>1399</v>
-      </c>
-      <c r="C66">
-        <v>716</v>
       </c>
       <c r="D66">
         <v>2060</v>
@@ -6385,10 +6385,10 @@
         <v>2261</v>
       </c>
       <c r="B67">
+        <v>1728</v>
+      </c>
+      <c r="C67">
         <v>2304</v>
-      </c>
-      <c r="C67">
-        <v>1728</v>
       </c>
       <c r="D67">
         <v>2388</v>
@@ -6480,10 +6480,10 @@
         <v>4331</v>
       </c>
       <c r="B68">
+        <v>1573</v>
+      </c>
+      <c r="C68">
         <v>1493</v>
-      </c>
-      <c r="C68">
-        <v>1573</v>
       </c>
       <c r="D68">
         <v>535</v>
@@ -6575,10 +6575,10 @@
         <v>3369</v>
       </c>
       <c r="B69">
+        <v>1744</v>
+      </c>
+      <c r="C69">
         <v>1754</v>
-      </c>
-      <c r="C69">
-        <v>1744</v>
       </c>
       <c r="D69">
         <v>1968</v>
@@ -6670,10 +6670,10 @@
         <v>3283</v>
       </c>
       <c r="B70">
+        <v>1295</v>
+      </c>
+      <c r="C70">
         <v>1231</v>
-      </c>
-      <c r="C70">
-        <v>1295</v>
       </c>
       <c r="D70">
         <v>4582</v>
@@ -6765,10 +6765,10 @@
         <v>1113</v>
       </c>
       <c r="B71">
+        <v>1827</v>
+      </c>
+      <c r="C71">
         <v>1555</v>
-      </c>
-      <c r="C71">
-        <v>1827</v>
       </c>
       <c r="D71">
         <v>4640</v>
@@ -6860,10 +6860,10 @@
         <v>2417</v>
       </c>
       <c r="B72">
+        <v>1524</v>
+      </c>
+      <c r="C72">
         <v>1304</v>
-      </c>
-      <c r="C72">
-        <v>1524</v>
       </c>
       <c r="D72">
         <v>6435</v>
@@ -6955,10 +6955,10 @@
         <v>2212</v>
       </c>
       <c r="B73">
+        <v>1685</v>
+      </c>
+      <c r="C73">
         <v>823</v>
-      </c>
-      <c r="C73">
-        <v>1685</v>
       </c>
       <c r="D73">
         <v>4996</v>
@@ -7050,10 +7050,10 @@
         <v>1930</v>
       </c>
       <c r="B74">
+        <v>1392</v>
+      </c>
+      <c r="C74">
         <v>1445</v>
-      </c>
-      <c r="C74">
-        <v>1392</v>
       </c>
       <c r="D74">
         <v>5989</v>
@@ -7145,10 +7145,10 @@
         <v>1198</v>
       </c>
       <c r="B75">
+        <v>1679</v>
+      </c>
+      <c r="C75">
         <v>969</v>
-      </c>
-      <c r="C75">
-        <v>1679</v>
       </c>
       <c r="D75">
         <v>2268</v>
@@ -7240,10 +7240,10 @@
         <v>1429</v>
       </c>
       <c r="B76">
+        <v>1442</v>
+      </c>
+      <c r="C76">
         <v>432</v>
-      </c>
-      <c r="C76">
-        <v>1442</v>
       </c>
       <c r="D76">
         <v>653</v>
@@ -7335,10 +7335,10 @@
         <v>4196</v>
       </c>
       <c r="B77">
+        <v>1322</v>
+      </c>
+      <c r="C77">
         <v>683</v>
-      </c>
-      <c r="C77">
-        <v>1322</v>
       </c>
       <c r="D77">
         <v>1011</v>
@@ -7430,10 +7430,10 @@
         <v>1187</v>
       </c>
       <c r="B78">
+        <v>1123</v>
+      </c>
+      <c r="C78">
         <v>2189</v>
-      </c>
-      <c r="C78">
-        <v>1123</v>
       </c>
       <c r="D78">
         <v>318</v>
@@ -7525,10 +7525,10 @@
         <v>2728</v>
       </c>
       <c r="B79">
+        <v>1140</v>
+      </c>
+      <c r="C79">
         <v>1029</v>
-      </c>
-      <c r="C79">
-        <v>1140</v>
       </c>
       <c r="D79">
         <v>769</v>
@@ -7620,10 +7620,10 @@
         <v>2708</v>
       </c>
       <c r="B80">
+        <v>1560</v>
+      </c>
+      <c r="C80">
         <v>923</v>
-      </c>
-      <c r="C80">
-        <v>1560</v>
       </c>
       <c r="D80">
         <v>1562</v>
@@ -7715,10 +7715,10 @@
         <v>2579</v>
       </c>
       <c r="B81">
+        <v>1754</v>
+      </c>
+      <c r="C81">
         <v>861</v>
-      </c>
-      <c r="C81">
-        <v>1754</v>
       </c>
       <c r="D81">
         <v>2881</v>
@@ -7810,10 +7810,10 @@
         <v>3936</v>
       </c>
       <c r="B82">
+        <v>2264</v>
+      </c>
+      <c r="C82">
         <v>2024</v>
-      </c>
-      <c r="C82">
-        <v>2264</v>
       </c>
       <c r="D82">
         <v>2492</v>
@@ -7905,10 +7905,10 @@
         <v>3529</v>
       </c>
       <c r="B83">
+        <v>1779</v>
+      </c>
+      <c r="C83">
         <v>1425</v>
-      </c>
-      <c r="C83">
-        <v>1779</v>
       </c>
       <c r="D83">
         <v>2625</v>
@@ -8000,10 +8000,10 @@
         <v>2468</v>
       </c>
       <c r="B84">
+        <v>1698</v>
+      </c>
+      <c r="C84">
         <v>679</v>
-      </c>
-      <c r="C84">
-        <v>1698</v>
       </c>
       <c r="D84">
         <v>1460</v>
@@ -8095,10 +8095,10 @@
         <v>1213</v>
       </c>
       <c r="B85">
+        <v>2066</v>
+      </c>
+      <c r="C85">
         <v>697</v>
-      </c>
-      <c r="C85">
-        <v>2066</v>
       </c>
       <c r="D85">
         <v>2822</v>
@@ -8190,10 +8190,10 @@
         <v>2215</v>
       </c>
       <c r="B86">
+        <v>2131</v>
+      </c>
+      <c r="C86">
         <v>1149</v>
-      </c>
-      <c r="C86">
-        <v>2131</v>
       </c>
       <c r="D86">
         <v>1865</v>
@@ -8285,10 +8285,10 @@
         <v>1667</v>
       </c>
       <c r="B87">
+        <v>1206</v>
+      </c>
+      <c r="C87">
         <v>714</v>
-      </c>
-      <c r="C87">
-        <v>1206</v>
       </c>
       <c r="D87">
         <v>1053</v>
@@ -8380,10 +8380,10 @@
         <v>1733</v>
       </c>
       <c r="B88">
+        <v>2057</v>
+      </c>
+      <c r="C88">
         <v>1062</v>
-      </c>
-      <c r="C88">
-        <v>2057</v>
       </c>
       <c r="D88">
         <v>27</v>
@@ -8475,10 +8475,10 @@
         <v>1393</v>
       </c>
       <c r="B89">
+        <v>1728</v>
+      </c>
+      <c r="C89">
         <v>3410</v>
-      </c>
-      <c r="C89">
-        <v>1728</v>
       </c>
       <c r="D89">
         <v>563</v>
@@ -8570,10 +8570,10 @@
         <v>1321</v>
       </c>
       <c r="B90">
+        <v>1496</v>
+      </c>
+      <c r="C90">
         <v>1998</v>
-      </c>
-      <c r="C90">
-        <v>1496</v>
       </c>
       <c r="D90">
         <v>756</v>
@@ -8665,10 +8665,10 @@
         <v>1831</v>
       </c>
       <c r="B91">
+        <v>1469</v>
+      </c>
+      <c r="C91">
         <v>2260</v>
-      </c>
-      <c r="C91">
-        <v>1469</v>
       </c>
       <c r="D91">
         <v>1189</v>
@@ -8760,10 +8760,10 @@
         <v>2879</v>
       </c>
       <c r="B92">
+        <v>1084</v>
+      </c>
+      <c r="C92">
         <v>2790</v>
-      </c>
-      <c r="C92">
-        <v>1084</v>
       </c>
       <c r="D92">
         <v>1156</v>
@@ -8855,10 +8855,10 @@
         <v>1878</v>
       </c>
       <c r="B93">
+        <v>2156</v>
+      </c>
+      <c r="C93">
         <v>2177</v>
-      </c>
-      <c r="C93">
-        <v>2156</v>
       </c>
       <c r="D93">
         <v>1692</v>
@@ -8950,10 +8950,10 @@
         <v>3995</v>
       </c>
       <c r="B94">
+        <v>2220</v>
+      </c>
+      <c r="C94">
         <v>3679</v>
-      </c>
-      <c r="C94">
-        <v>2220</v>
       </c>
       <c r="D94">
         <v>1552</v>
@@ -9045,10 +9045,10 @@
         <v>4421</v>
       </c>
       <c r="B95">
+        <v>3282</v>
+      </c>
+      <c r="C95">
         <v>1407</v>
-      </c>
-      <c r="C95">
-        <v>3282</v>
       </c>
       <c r="D95">
         <v>806</v>
@@ -9140,10 +9140,10 @@
         <v>4670</v>
       </c>
       <c r="B96">
+        <v>2923</v>
+      </c>
+      <c r="C96">
         <v>1778</v>
-      </c>
-      <c r="C96">
-        <v>2923</v>
       </c>
       <c r="D96">
         <v>1073</v>
@@ -9235,10 +9235,10 @@
         <v>2760</v>
       </c>
       <c r="B97">
+        <v>3146</v>
+      </c>
+      <c r="C97">
         <v>1415</v>
-      </c>
-      <c r="C97">
-        <v>3146</v>
       </c>
       <c r="D97">
         <v>1067</v>
@@ -9330,10 +9330,10 @@
         <v>1898</v>
       </c>
       <c r="B98">
+        <v>2634</v>
+      </c>
+      <c r="C98">
         <v>4585</v>
-      </c>
-      <c r="C98">
-        <v>2634</v>
       </c>
       <c r="D98">
         <v>1072</v>
@@ -9425,10 +9425,10 @@
         <v>3315</v>
       </c>
       <c r="B99">
+        <v>2099</v>
+      </c>
+      <c r="C99">
         <v>1767</v>
-      </c>
-      <c r="C99">
-        <v>2099</v>
       </c>
       <c r="D99">
         <v>456</v>
@@ -9520,10 +9520,10 @@
         <v>1962</v>
       </c>
       <c r="B100">
+        <v>2629</v>
+      </c>
+      <c r="C100">
         <v>1618</v>
-      </c>
-      <c r="C100">
-        <v>2629</v>
       </c>
       <c r="D100">
         <v>156</v>
@@ -9615,10 +9615,10 @@
         <v>2900</v>
       </c>
       <c r="B101">
+        <v>2392</v>
+      </c>
+      <c r="C101">
         <v>2709</v>
-      </c>
-      <c r="C101">
-        <v>2392</v>
       </c>
       <c r="D101">
         <v>338</v>
@@ -9710,10 +9710,10 @@
         <v>2897</v>
       </c>
       <c r="B102">
+        <v>1599</v>
+      </c>
+      <c r="C102">
         <v>2789</v>
-      </c>
-      <c r="C102">
-        <v>1599</v>
       </c>
       <c r="D102">
         <v>279</v>
@@ -9805,10 +9805,10 @@
         <v>3529</v>
       </c>
       <c r="B103">
+        <v>2958</v>
+      </c>
+      <c r="C103">
         <v>4173</v>
-      </c>
-      <c r="C103">
-        <v>2958</v>
       </c>
       <c r="D103">
         <v>307</v>
@@ -9900,10 +9900,10 @@
         <v>3269</v>
       </c>
       <c r="B104">
+        <v>4122</v>
+      </c>
+      <c r="C104">
         <v>2414</v>
-      </c>
-      <c r="C104">
-        <v>4122</v>
       </c>
       <c r="D104">
         <v>280</v>
@@ -9995,10 +9995,10 @@
         <v>2932</v>
       </c>
       <c r="B105">
+        <v>3770</v>
+      </c>
+      <c r="C105">
         <v>2133</v>
-      </c>
-      <c r="C105">
-        <v>3770</v>
       </c>
       <c r="D105">
         <v>312</v>
@@ -10090,10 +10090,10 @@
         <v>3084</v>
       </c>
       <c r="B106">
+        <v>3420</v>
+      </c>
+      <c r="C106">
         <v>2284</v>
-      </c>
-      <c r="C106">
-        <v>3420</v>
       </c>
       <c r="D106">
         <v>1127</v>
@@ -10185,10 +10185,10 @@
         <v>5072</v>
       </c>
       <c r="B107">
+        <v>3853</v>
+      </c>
+      <c r="C107">
         <v>2976</v>
-      </c>
-      <c r="C107">
-        <v>3853</v>
       </c>
       <c r="D107">
         <v>3456</v>
@@ -10280,10 +10280,10 @@
         <v>4303</v>
       </c>
       <c r="B108">
+        <v>3735</v>
+      </c>
+      <c r="C108">
         <v>1767</v>
-      </c>
-      <c r="C108">
-        <v>3735</v>
       </c>
       <c r="D108">
         <v>3552</v>
@@ -10375,10 +10375,10 @@
         <v>4178</v>
       </c>
       <c r="B109">
+        <v>3291</v>
+      </c>
+      <c r="C109">
         <v>2780</v>
-      </c>
-      <c r="C109">
-        <v>3291</v>
       </c>
       <c r="D109">
         <v>2611</v>
@@ -10470,10 +10470,10 @@
         <v>2484</v>
       </c>
       <c r="B110">
+        <v>3912</v>
+      </c>
+      <c r="C110">
         <v>2957</v>
-      </c>
-      <c r="C110">
-        <v>3912</v>
       </c>
       <c r="D110">
         <v>2757</v>
@@ -10565,10 +10565,10 @@
         <v>3071</v>
       </c>
       <c r="B111">
+        <v>2313</v>
+      </c>
+      <c r="C111">
         <v>2456</v>
-      </c>
-      <c r="C111">
-        <v>2313</v>
       </c>
       <c r="D111">
         <v>739</v>
@@ -10660,10 +10660,10 @@
         <v>1495</v>
       </c>
       <c r="B112">
+        <v>3285</v>
+      </c>
+      <c r="C112">
         <v>1285</v>
-      </c>
-      <c r="C112">
-        <v>3285</v>
       </c>
       <c r="D112">
         <v>392</v>
@@ -10755,10 +10755,10 @@
         <v>1162</v>
       </c>
       <c r="B113">
+        <v>2969</v>
+      </c>
+      <c r="C113">
         <v>1879</v>
-      </c>
-      <c r="C113">
-        <v>2969</v>
       </c>
       <c r="D113">
         <v>243</v>
@@ -10850,10 +10850,10 @@
         <v>1485</v>
       </c>
       <c r="B114">
+        <v>2410</v>
+      </c>
+      <c r="C114">
         <v>1414</v>
-      </c>
-      <c r="C114">
-        <v>2410</v>
       </c>
       <c r="D114">
         <v>500</v>
@@ -10945,10 +10945,10 @@
         <v>1346</v>
       </c>
       <c r="B115">
+        <v>2702</v>
+      </c>
+      <c r="C115">
         <v>1314</v>
-      </c>
-      <c r="C115">
-        <v>2702</v>
       </c>
       <c r="D115">
         <v>764</v>
@@ -11040,10 +11040,10 @@
         <v>1854</v>
       </c>
       <c r="B116">
+        <v>3141</v>
+      </c>
+      <c r="C116">
         <v>1224</v>
-      </c>
-      <c r="C116">
-        <v>3141</v>
       </c>
       <c r="D116">
         <v>452</v>
@@ -11135,10 +11135,10 @@
         <v>1019</v>
       </c>
       <c r="B117">
+        <v>4032</v>
+      </c>
+      <c r="C117">
         <v>1286</v>
-      </c>
-      <c r="C117">
-        <v>4032</v>
       </c>
       <c r="D117">
         <v>534</v>
@@ -11230,10 +11230,10 @@
         <v>1920</v>
       </c>
       <c r="B118">
+        <v>3779</v>
+      </c>
+      <c r="C118">
         <v>2019</v>
-      </c>
-      <c r="C118">
-        <v>3779</v>
       </c>
       <c r="D118">
         <v>581</v>
@@ -11325,10 +11325,10 @@
         <v>2603</v>
       </c>
       <c r="B119">
+        <v>3084</v>
+      </c>
+      <c r="C119">
         <v>2752</v>
-      </c>
-      <c r="C119">
-        <v>3084</v>
       </c>
       <c r="D119">
         <v>671</v>
@@ -11420,10 +11420,10 @@
         <v>2647</v>
       </c>
       <c r="B120">
+        <v>2953</v>
+      </c>
+      <c r="C120">
         <v>830</v>
-      </c>
-      <c r="C120">
-        <v>2953</v>
       </c>
       <c r="D120">
         <v>755</v>
@@ -11515,10 +11515,10 @@
         <v>4105</v>
       </c>
       <c r="B121">
+        <v>2549</v>
+      </c>
+      <c r="C121">
         <v>1594</v>
-      </c>
-      <c r="C121">
-        <v>2549</v>
       </c>
       <c r="D121">
         <v>1130</v>
@@ -11610,10 +11610,10 @@
         <v>2589</v>
       </c>
       <c r="B122">
+        <v>2624</v>
+      </c>
+      <c r="C122">
         <v>2391</v>
-      </c>
-      <c r="C122">
-        <v>2624</v>
       </c>
       <c r="D122">
         <v>934</v>
@@ -11705,10 +11705,10 @@
         <v>1356</v>
       </c>
       <c r="B123">
+        <v>1885</v>
+      </c>
+      <c r="C123">
         <v>1306</v>
-      </c>
-      <c r="C123">
-        <v>1885</v>
       </c>
       <c r="D123">
         <v>781</v>
@@ -11800,10 +11800,10 @@
         <v>753</v>
       </c>
       <c r="B124">
+        <v>3437</v>
+      </c>
+      <c r="C124">
         <v>564</v>
-      </c>
-      <c r="C124">
-        <v>3437</v>
       </c>
       <c r="D124">
         <v>279</v>
@@ -11895,10 +11895,10 @@
         <v>1310</v>
       </c>
       <c r="B125">
+        <v>2858</v>
+      </c>
+      <c r="C125">
         <v>1382</v>
-      </c>
-      <c r="C125">
-        <v>2858</v>
       </c>
       <c r="D125">
         <v>689</v>
@@ -11990,10 +11990,10 @@
         <v>894</v>
       </c>
       <c r="B126">
+        <v>3150</v>
+      </c>
+      <c r="C126">
         <v>1378</v>
-      </c>
-      <c r="C126">
-        <v>3150</v>
       </c>
       <c r="D126">
         <v>440</v>
@@ -12085,10 +12085,10 @@
         <v>2320</v>
       </c>
       <c r="B127">
+        <v>3308</v>
+      </c>
+      <c r="C127">
         <v>1475</v>
-      </c>
-      <c r="C127">
-        <v>3308</v>
       </c>
       <c r="D127">
         <v>565</v>
@@ -12180,10 +12180,10 @@
         <v>545</v>
       </c>
       <c r="B128">
+        <v>3032</v>
+      </c>
+      <c r="C128">
         <v>2888</v>
-      </c>
-      <c r="C128">
-        <v>3032</v>
       </c>
       <c r="D128">
         <v>564</v>
@@ -12275,10 +12275,10 @@
         <v>2481</v>
       </c>
       <c r="B129">
+        <v>4003</v>
+      </c>
+      <c r="C129">
         <v>1056</v>
-      </c>
-      <c r="C129">
-        <v>4003</v>
       </c>
       <c r="D129">
         <v>553</v>
@@ -12370,10 +12370,10 @@
         <v>2800</v>
       </c>
       <c r="B130">
+        <v>3036</v>
+      </c>
+      <c r="C130">
         <v>2777</v>
-      </c>
-      <c r="C130">
-        <v>3036</v>
       </c>
       <c r="D130">
         <v>423</v>
@@ -12465,10 +12465,10 @@
         <v>1951</v>
       </c>
       <c r="B131">
+        <v>3273</v>
+      </c>
+      <c r="C131">
         <v>1404</v>
-      </c>
-      <c r="C131">
-        <v>3273</v>
       </c>
       <c r="D131">
         <v>795</v>
@@ -12560,10 +12560,10 @@
         <v>3215</v>
       </c>
       <c r="B132">
+        <v>4218</v>
+      </c>
+      <c r="C132">
         <v>1642</v>
-      </c>
-      <c r="C132">
-        <v>4218</v>
       </c>
       <c r="D132">
         <v>661</v>
@@ -12655,10 +12655,10 @@
         <v>2816</v>
       </c>
       <c r="B133">
+        <v>2964</v>
+      </c>
+      <c r="C133">
         <v>3880</v>
-      </c>
-      <c r="C133">
-        <v>2964</v>
       </c>
       <c r="D133">
         <v>1043</v>
@@ -12750,10 +12750,10 @@
         <v>3662</v>
       </c>
       <c r="B134">
+        <v>3678</v>
+      </c>
+      <c r="C134">
         <v>2165</v>
-      </c>
-      <c r="C134">
-        <v>3678</v>
       </c>
       <c r="D134">
         <v>652</v>
@@ -12845,10 +12845,10 @@
         <v>2088</v>
       </c>
       <c r="B135">
+        <v>2901</v>
+      </c>
+      <c r="C135">
         <v>1406</v>
-      </c>
-      <c r="C135">
-        <v>2901</v>
       </c>
       <c r="D135">
         <v>815</v>
@@ -12940,10 +12940,10 @@
         <v>1508</v>
       </c>
       <c r="B136">
+        <v>4227</v>
+      </c>
+      <c r="C136">
         <v>479</v>
-      </c>
-      <c r="C136">
-        <v>4227</v>
       </c>
       <c r="D136">
         <v>624</v>
@@ -13035,10 +13035,10 @@
         <v>988</v>
       </c>
       <c r="B137">
+        <v>3923</v>
+      </c>
+      <c r="C137">
         <v>1956</v>
-      </c>
-      <c r="C137">
-        <v>3923</v>
       </c>
       <c r="D137">
         <v>652</v>
@@ -13130,10 +13130,10 @@
         <v>1744</v>
       </c>
       <c r="B138">
+        <v>1640</v>
+      </c>
+      <c r="C138">
         <v>2503</v>
-      </c>
-      <c r="C138">
-        <v>1640</v>
       </c>
       <c r="D138">
         <v>509</v>
@@ -13225,10 +13225,10 @@
         <v>1449</v>
       </c>
       <c r="B139">
+        <v>3269</v>
+      </c>
+      <c r="C139">
         <v>3087</v>
-      </c>
-      <c r="C139">
-        <v>3269</v>
       </c>
       <c r="D139">
         <v>602</v>
@@ -13320,10 +13320,10 @@
         <v>2005</v>
       </c>
       <c r="B140">
+        <v>3267</v>
+      </c>
+      <c r="C140">
         <v>2808</v>
-      </c>
-      <c r="C140">
-        <v>3267</v>
       </c>
       <c r="D140">
         <v>669</v>
@@ -13415,10 +13415,10 @@
         <v>3223</v>
       </c>
       <c r="B141">
+        <v>3940</v>
+      </c>
+      <c r="C141">
         <v>2114</v>
-      </c>
-      <c r="C141">
-        <v>3940</v>
       </c>
       <c r="D141">
         <v>1146</v>
@@ -13510,10 +13510,10 @@
         <v>3533</v>
       </c>
       <c r="B142">
+        <v>4483</v>
+      </c>
+      <c r="C142">
         <v>2262</v>
-      </c>
-      <c r="C142">
-        <v>4483</v>
       </c>
       <c r="D142">
         <v>834</v>
@@ -13605,10 +13605,10 @@
         <v>3165</v>
       </c>
       <c r="B143">
+        <v>3491</v>
+      </c>
+      <c r="C143">
         <v>3415</v>
-      </c>
-      <c r="C143">
-        <v>3491</v>
       </c>
       <c r="D143">
         <v>421</v>
@@ -13700,10 +13700,10 @@
         <v>3990</v>
       </c>
       <c r="B144">
+        <v>4837</v>
+      </c>
+      <c r="C144">
         <v>1857</v>
-      </c>
-      <c r="C144">
-        <v>4837</v>
       </c>
       <c r="D144">
         <v>263</v>
@@ -13795,10 +13795,10 @@
         <v>2159</v>
       </c>
       <c r="B145">
+        <v>3226</v>
+      </c>
+      <c r="C145">
         <v>3314</v>
-      </c>
-      <c r="C145">
-        <v>3226</v>
       </c>
       <c r="D145">
         <v>411</v>
@@ -13890,10 +13890,10 @@
         <v>2352</v>
       </c>
       <c r="B146">
+        <v>3003</v>
+      </c>
+      <c r="C146">
         <v>2453</v>
-      </c>
-      <c r="C146">
-        <v>3003</v>
       </c>
       <c r="D146">
         <v>235</v>
@@ -13985,10 +13985,10 @@
         <v>2010</v>
       </c>
       <c r="B147">
+        <v>1973</v>
+      </c>
+      <c r="C147">
         <v>1022</v>
-      </c>
-      <c r="C147">
-        <v>1973</v>
       </c>
       <c r="D147">
         <v>187</v>
@@ -14080,10 +14080,10 @@
         <v>1557</v>
       </c>
       <c r="B148">
+        <v>5063</v>
+      </c>
+      <c r="C148">
         <v>915</v>
-      </c>
-      <c r="C148">
-        <v>5063</v>
       </c>
       <c r="D148">
         <v>94</v>
@@ -14174,7 +14174,7 @@
       <c r="A149">
         <v>1924</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>1912</v>
       </c>
       <c r="D149">
@@ -14266,7 +14266,7 @@
       <c r="A150">
         <v>1422</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>2542</v>
       </c>
       <c r="D150">
@@ -14355,7 +14355,7 @@
       <c r="A151">
         <v>1315</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>2729</v>
       </c>
       <c r="D151">
@@ -14441,7 +14441,7 @@
       <c r="A152">
         <v>1471</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>3708</v>
       </c>
       <c r="D152">
